--- a/metadata/MAL/MAL-MMG_CUSTOM_V1_DHIS2.33/reference.xlsx
+++ b/metadata/MAL/MAL-MMG_CUSTOM_V1_DHIS2.33/reference.xlsx
@@ -417,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -455,7 +455,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.1.0</v>
+        <v>1.1.0</v>
       </c>
     </row>
     <row r="5">
@@ -463,23 +463,31 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.33</v>
+        <v>2.33.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Created</v>
+        <v>DHIS2 build</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2020-09-12T16:58</v>
+        <v>58094d2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Identifier</v>
+        <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>MAL-MMG_CUSTOM_V1.1.0_DHIS2.33_2020-09-12T16:58</v>
+        <v>20210520T090044</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>MAL-MMG_CUSTOM_V1.1.0_2.33.9-en</v>
       </c>
     </row>
   </sheetData>
@@ -527,85 +535,85 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>MAL - Malaria positive from cross-borders</v>
+        <v>MAL - Migrant and mobile population (MMP) positive</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Positive from cross-borders</v>
+        <v>MMP positive</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>MAL_POS_CROSS_BORDERS</v>
+        <v>MAL_MM_POP_POS</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>Number of positive cases with either microscopy or RDT in administrative area bordering international border</v>
+        <v>Number of migrant and mobile population (MMP) that are positive with either microscopy and RDT</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>VkQPxB6VdoG</v>
+        <v>bjDvmb4bfuf</v>
       </c>
       <c r="F2" s="4" t="str">
         <v>2019-10-20</v>
       </c>
       <c r="G2" s="4" t="str">
-        <v>UwaQ0MJzXBz</v>
+        <v>CWHBMa4nC9J</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>MAL - Malaria positive from cross-borders followed for 14 days</v>
+        <v>MAL - Malaria tested from cross-borders</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>Positive from cross-borders followed for 14 days</v>
+        <v>Tested from cross-borders</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>MAL_POS_CROSS_BORDERS_FOLLO_14D</v>
+        <v>MAL_TEST_CROSS_BORDERS</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Number of suspected malaria cases positive with either microscopy or RDT in administrative area bordering international border</v>
+        <v>Number of suspected cases tested with either microscopy or RDT in administrative area bordering international border</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v>bjDvmb4bfuf</v>
+        <v>VkQPxB6VdoG</v>
       </c>
       <c r="F3" s="5" t="str">
         <v>2019-10-20</v>
       </c>
       <c r="G3" s="5" t="str">
-        <v>wAHUeGPbH9A</v>
+        <v>CxI1FHE4oEh</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>MAL - Malaria tested from cross-borders</v>
+        <v>MAL - Migrant and mobile population (MMP) followed up for 14 days</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Tested from cross-borders</v>
+        <v>MMP followed up for 14 days</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>MAL_TEST_CROSS_BORDERS</v>
+        <v>MAL_MM_POP_FOLLO_UP_FOR_14D</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Number of suspected cases tested with either microscopy or RDT in administrative area bordering international border</v>
+        <v>Number of migrant and mobile population (MMP) that are are followed-up for 14 days (with testing using microscopy or RDT at intervals)</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>VkQPxB6VdoG</v>
+        <v>bjDvmb4bfuf</v>
       </c>
       <c r="F4" s="4" t="str">
         <v>2019-10-20</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>CxI1FHE4oEh</v>
+        <v>kdMT3AuDzj1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>MAL - Migrant and mobile population (MMP) followed up for 14 days</v>
+        <v>MAL - Migrant and mobile population (MMP) tested</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>MMP followed up for 14 days</v>
+        <v>MMP tested</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>MAL_MM_POP_FOLLO_UP_FOR_14D</v>
+        <v>MAL_MM_POP_TEST</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>Number of migrant and mobile population (MMP) that are are followed-up for 14 days (with testing using microscopy or RDT at intervals)</v>
+        <v>Number of migrant and mobile population (MMP) suspected and tested with either microscopy and RDT</v>
       </c>
       <c r="E5" s="5" t="str">
         <v>bjDvmb4bfuf</v>
@@ -614,44 +622,44 @@
         <v>2019-10-20</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>kdMT3AuDzj1</v>
+        <v>S3AqkeU4DET</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>MAL - Migrant and mobile population (MMP) positive</v>
+        <v>MAL - Malaria positive from cross-borders</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>MMP positive</v>
+        <v>Positive from cross-borders</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>MAL_MM_POP_POS</v>
+        <v>MAL_POS_CROSS_BORDERS</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Number of migrant and mobile population (MMP) that are positive with either microscopy and RDT</v>
+        <v>Number of positive cases with either microscopy or RDT in administrative area bordering international border</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>bjDvmb4bfuf</v>
+        <v>VkQPxB6VdoG</v>
       </c>
       <c r="F6" s="4" t="str">
         <v>2019-10-20</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>CWHBMa4nC9J</v>
+        <v>UwaQ0MJzXBz</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>MAL - Migrant and mobile population (MMP) tested</v>
+        <v>MAL - Malaria positive from cross-borders followed for 14 days</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>MMP tested</v>
+        <v>Positive from cross-borders followed for 14 days</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>MAL_MM_POP_TEST</v>
+        <v>MAL_POS_CROSS_BORDERS_FOLLO_14D</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>Number of migrant and mobile population (MMP) suspected and tested with either microscopy and RDT</v>
+        <v>Number of suspected malaria cases positive with either microscopy or RDT in administrative area bordering international border</v>
       </c>
       <c r="E7" s="5" t="str">
         <v>bjDvmb4bfuf</v>
@@ -660,7 +668,7 @@
         <v>2019-10-20</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>S3AqkeU4DET</v>
+        <v>wAHUeGPbH9A</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +699,7 @@
         <v>Malaria cross borders and MMP</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>MAL - Malaria tested from cross-borders</v>
+        <v>MAL - Migrant and mobile population (MMP) positive</v>
       </c>
     </row>
     <row r="3">
@@ -699,7 +707,7 @@
         <v>Malaria cross borders and MMP</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>MAL - Malaria positive from cross-borders</v>
+        <v>MAL - Malaria tested from cross-borders</v>
       </c>
     </row>
     <row r="4">
@@ -707,7 +715,7 @@
         <v>Malaria cross borders and MMP</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>MAL - Migrant and mobile population (MMP) tested</v>
+        <v>MAL - Migrant and mobile population (MMP) followed up for 14 days</v>
       </c>
     </row>
     <row r="5">
@@ -715,7 +723,7 @@
         <v>Malaria cross borders and MMP</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>MAL - Malaria positive from cross-borders followed for 14 days</v>
+        <v>MAL - Migrant and mobile population (MMP) tested</v>
       </c>
     </row>
     <row r="6">
@@ -723,7 +731,7 @@
         <v>Malaria cross borders and MMP</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>MAL - Migrant and mobile population (MMP) followed up for 14 days</v>
+        <v>MAL - Malaria positive from cross-borders</v>
       </c>
     </row>
     <row r="7">
@@ -731,7 +739,7 @@
         <v>Malaria cross borders and MMP</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>MAL - Migrant and mobile population (MMP) positive</v>
+        <v>MAL - Malaria positive from cross-borders followed for 14 days</v>
       </c>
     </row>
   </sheetData>
@@ -763,13 +771,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Malaria access</v>
+        <v>Malaria data capture</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-04-24</v>
+        <v>2021-05-20</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>ZXEVDM9XRea</v>
+        <v>fRSrUJ6SMGH</v>
       </c>
     </row>
     <row r="3">
@@ -777,7 +785,7 @@
         <v>Malaria admin</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2020-09-03</v>
+        <v>2021-05-20</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>suMb19wGXPR</v>
@@ -785,13 +793,13 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Malaria data capture</v>
+        <v>Malaria access</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2020-04-24</v>
+        <v>2021-05-20</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>fRSrUJ6SMGH</v>
+        <v>ZXEVDM9XRea</v>
       </c>
     </row>
   </sheetData>
